--- a/biology/Zoologie/Gerbillurus/Gerbillurus.xlsx
+++ b/biology/Zoologie/Gerbillurus/Gerbillurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerbillurus est un genre de rongeurs de la sous-famille des Gerbillinae. Les espèces sont des gerbilles.
-Les espèces de ce genre sont parfois incluses dans le genre Gerbillus[1]. 
+Les espèces de ce genre sont parfois incluses dans le genre Gerbillus. 
 </t>
         </is>
       </c>
@@ -514,14 +526,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Espèces
-Les espèces, selon ITIS      (19 nov. 2010)[2] et NCBI  (19 nov. 2010)[3] :
-espèce Gerbillurus paeba (A. Smith, 1836) — Gerbille à pieds velus[1]
-espèce Gerbillurus setzeri (Schlitter, 1973) — Gerbille de Setzer[1]
-espèce Gerbillurus tytonis (Bauer &amp; Niethammer, 1960) — Gerbille des dunes[1]
-espèce Gerbillurus vallinus (Thomas, 1918)
-Sous-genres
-Selon MSW le genre comprend quatre espèces en trois sous-genres.
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les espèces, selon ITIS      (19 nov. 2010) et NCBI  (19 nov. 2010) :
+espèce Gerbillurus paeba (A. Smith, 1836) — Gerbille à pieds velus
+espèce Gerbillurus setzeri (Schlitter, 1973) — Gerbille de Setzer
+espèce Gerbillurus tytonis (Bauer &amp; Niethammer, 1960) — Gerbille des dunes
+espèce Gerbillurus vallinus (Thomas, 1918)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gerbillurus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gerbillurus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des sous-genres et espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-genres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon MSW le genre comprend quatre espèces en trois sous-genres.
 sous-genre Gerbillurus (Gerbillurus) Shortridge, 1942
 espèce Gerbillurus (Gerbillurus) setzeri (Schlitter, 1973)
 espèce Gerbillurus (Gerbillurus) vallinus (Thomas, 1918)
